--- a/notes/Array Content.xlsx
+++ b/notes/Array Content.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="11475" windowHeight="3930" tabRatio="832" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="11475" windowHeight="3930" tabRatio="851" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal Attributes" sheetId="9" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Keyboard Numbers" sheetId="7" r:id="rId8"/>
     <sheet name="ObjTer Combinations" sheetId="8" r:id="rId9"/>
     <sheet name="LVL File Structure" sheetId="10" r:id="rId10"/>
+    <sheet name="Tunnel IDs" sheetId="11" r:id="rId11"/>
+    <sheet name="Custom IDs" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="794">
   <si>
     <t>CheckArray / CheckLoc( PF[x][y] ) / Can tank move into this type of PF space?</t>
   </si>
@@ -2126,6 +2128,285 @@
   </si>
   <si>
     <t>LName</t>
+  </si>
+  <si>
+    <t>#define GetTunnelID(x, y)((Game.PF[x][y] &amp; 0x0F) &gt;&gt; 1) // 0 - 7</t>
+  </si>
+  <si>
+    <t>#define ISTunnel(x, y)((Game.PF[x][y] &amp; Obj_Tunnel) == Obj_Tunnel)</t>
+  </si>
+  <si>
+    <t>#define Obj_Tunnel 0x40 // Object 01dddddX = Tunnel</t>
+  </si>
+  <si>
+    <t>Game.PF[x][y] = i + 0x40;</t>
+  </si>
+  <si>
+    <t>pt = Game.PF[x][y];</t>
+  </si>
+  <si>
+    <t>if (pt &gt; 0x19) {</t>
+  </si>
+  <si>
+    <t>pt = GetTunnelID(x, y);</t>
+  </si>
+  <si>
+    <t>Game.PF[x][y] = (pt &lt;&lt; 1) + 0x40;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>(i*2)+64</t>
+  </si>
+  <si>
+    <t>Tunnel (i = ID)</t>
+  </si>
+  <si>
+    <t>tunnel_0_red_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_1_green_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_2_blue_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_3_cyan_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_4_yellow_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_5_pink_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_6_white_waiting</t>
+  </si>
+  <si>
+    <t>tunnel_7_grey_waiting</t>
+  </si>
+  <si>
+    <t>ID#</t>
+  </si>
+  <si>
+    <t>b_0100_0000</t>
+  </si>
+  <si>
+    <t>b_0100_0010</t>
+  </si>
+  <si>
+    <t>b_0100_0100</t>
+  </si>
+  <si>
+    <t>b_0100_0110</t>
+  </si>
+  <si>
+    <t>b_0100_1000</t>
+  </si>
+  <si>
+    <t>b_0100_1010</t>
+  </si>
+  <si>
+    <t>b_0100_1100</t>
+  </si>
+  <si>
+    <t>b_0100_1110</t>
+  </si>
+  <si>
+    <t>b_0100_0001</t>
+  </si>
+  <si>
+    <t>b_0100_0011</t>
+  </si>
+  <si>
+    <t>b_0100_0101</t>
+  </si>
+  <si>
+    <t>b_0100_0111</t>
+  </si>
+  <si>
+    <t>b_0100_1001</t>
+  </si>
+  <si>
+    <t>b_0100_1011</t>
+  </si>
+  <si>
+    <t>b_0100_1101</t>
+  </si>
+  <si>
+    <t>b_0100_1111</t>
+  </si>
+  <si>
+    <t>SHOOT</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>GRASS</t>
+  </si>
+  <si>
+    <t>FLAG</t>
+  </si>
+  <si>
+    <t>WATER</t>
+  </si>
+  <si>
+    <t>CONVEYOR_UP</t>
+  </si>
+  <si>
+    <t>CONVEYOR_RIGHT</t>
+  </si>
+  <si>
+    <t>CONVEYOR_DOWN</t>
+  </si>
+  <si>
+    <t>CONVEYOR_LEFT</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>THINICE</t>
+  </si>
+  <si>
+    <t>BRIDGE</t>
+  </si>
+  <si>
+    <t>TUNNEL_0_RED</t>
+  </si>
+  <si>
+    <t>TUNNEL_1_GREEN</t>
+  </si>
+  <si>
+    <t>TUNNEL_2_BLUE</t>
+  </si>
+  <si>
+    <t>TUNNEL_3_CYAN</t>
+  </si>
+  <si>
+    <t>TUNNEL_4_YELLOW</t>
+  </si>
+  <si>
+    <t>TUNNEL_5_PINK</t>
+  </si>
+  <si>
+    <t>TUNNEL_6_WHITE</t>
+  </si>
+  <si>
+    <t>TUNNEL_7_GREY</t>
+  </si>
+  <si>
+    <t>TUNNEL_0_RED_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_1_GREEN_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_2_BLUE_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_3_CYAN_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_4_YELLOW_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_5_PINK_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_6_WHITE_WAITING</t>
+  </si>
+  <si>
+    <t>TUNNEL_7_GREY_WAITING</t>
+  </si>
+  <si>
+    <t>TANK_UP</t>
+  </si>
+  <si>
+    <t>TANK_DOWN</t>
+  </si>
+  <si>
+    <t>TANK_RIGHT</t>
+  </si>
+  <si>
+    <t>TANK_LEFT</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>WALL</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>ANTITANK_UP</t>
+  </si>
+  <si>
+    <t>ANTITANK_RIGHT</t>
+  </si>
+  <si>
+    <t>ANTITANK_DOWN</t>
+  </si>
+  <si>
+    <t>ANTITANK_LEFT</t>
+  </si>
+  <si>
+    <t>MIRROR_LEFT_UP</t>
+  </si>
+  <si>
+    <t>MIRROR_UP_RIGHT</t>
+  </si>
+  <si>
+    <t>MIRROR_RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>MIRROR_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>DEADANTITANK_UP</t>
+  </si>
+  <si>
+    <t>DEADANTITANK_DOWN</t>
+  </si>
+  <si>
+    <t>DEADANTITANK_RIGHT</t>
+  </si>
+  <si>
+    <t>DEADANTITANK_LEFT</t>
+  </si>
+  <si>
+    <t>GLASS</t>
+  </si>
+  <si>
+    <t>ROTMIRROR_LEFT_UP</t>
+  </si>
+  <si>
+    <t>ROTMIRROR_UP_RIGHT</t>
+  </si>
+  <si>
+    <t>ROTMIRROR_RIGHT_DOWN</t>
+  </si>
+  <si>
+    <t>ROTMIRROR_DOWN_LEFT</t>
+  </si>
+  <si>
+    <t>Sprite Sheet Location</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2482,6 +2763,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4213,12 +4495,732 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>721</v>
+      </c>
+      <c r="E16" t="s">
+        <v>712</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+      <c r="G16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>722</v>
+      </c>
+      <c r="E17" t="s">
+        <v>713</v>
+      </c>
+      <c r="F17">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>723</v>
+      </c>
+      <c r="E18" t="s">
+        <v>714</v>
+      </c>
+      <c r="F18">
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>724</v>
+      </c>
+      <c r="E19" t="s">
+        <v>715</v>
+      </c>
+      <c r="F19">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>725</v>
+      </c>
+      <c r="E20" t="s">
+        <v>716</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>726</v>
+      </c>
+      <c r="E21" t="s">
+        <v>717</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>727</v>
+      </c>
+      <c r="E22" t="s">
+        <v>718</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>728</v>
+      </c>
+      <c r="E23" t="s">
+        <v>719</v>
+      </c>
+      <c r="F23">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>74</v>
+      </c>
+      <c r="B55" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>76</v>
+      </c>
+      <c r="B57" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>78</v>
+      </c>
+      <c r="B59" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B56">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,11 +5929,11 @@
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>26</v>
+      <c r="A35" s="12" t="s">
+        <v>710</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>7</v>
+        <v>711</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>450</v>
@@ -4950,10 +5952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:P66"/>
+  <dimension ref="D1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="D28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,6 +7238,70 @@
         <v>419</v>
       </c>
     </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>73</v>
+      </c>
+      <c r="E72" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6244,10 +7310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6255,9 +7321,10 @@
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -6270,8 +7337,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6284,8 +7354,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6298,720 +7371,888 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="C16">
+      <c r="C37">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="C17">
+      <c r="C38">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C18">
+      <c r="C39">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="C19">
+      <c r="C40">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D40" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C20">
+      <c r="C41">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D41" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="C21">
+      <c r="C42">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C22">
+      <c r="C43">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="C23">
+      <c r="C44">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C24">
+      <c r="C45">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D45" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>27</v>
-      </c>
-      <c r="C32">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33">
-        <v>28</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>30</v>
-      </c>
-      <c r="C35">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>476</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>33</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>34</v>
-      </c>
-      <c r="C39">
-        <v>34</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>477</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>35</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>45</v>
-      </c>
-      <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58">
         <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>47</v>
-      </c>
-      <c r="C42">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>48</v>
-      </c>
-      <c r="C43">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>50</v>
-      </c>
-      <c r="C45">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>56</v>
-      </c>
-      <c r="C46">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>57</v>
-      </c>
-      <c r="C47">
-        <v>57</v>
-      </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>55</v>
-      </c>
-      <c r="C48">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>53</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>54</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:D58">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="C2:C58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7021,7 +8262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7855,7 +9096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="19" t="s">
         <v>384</v>
@@ -7870,7 +9111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="19" t="s">
         <v>384</v>
@@ -7885,7 +9126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="19" t="s">
         <v>384</v>
@@ -7900,7 +9141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="19" t="s">
         <v>384</v>
@@ -7915,7 +9156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="19" t="s">
         <v>384</v>
@@ -7930,7 +9171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="19" t="s">
         <v>384</v>
@@ -7945,7 +9186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="19" t="s">
         <v>384</v>
@@ -7960,7 +9201,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="19" t="s">
         <v>384</v>
@@ -7975,7 +9216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="19" t="s">
         <v>384</v>
@@ -7990,7 +9231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="19" t="s">
         <v>384</v>
@@ -8005,7 +9246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="19" t="s">
         <v>384</v>
@@ -8020,7 +9261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="19" t="s">
         <v>384</v>
@@ -8035,7 +9276,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19" t="s">
         <v>384</v>
@@ -8050,7 +9291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="19" t="s">
         <v>384</v>
@@ -8065,7 +9306,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="19" t="s">
         <v>384</v>
@@ -8080,7 +9321,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="19" t="s">
         <v>384</v>
@@ -8091,7 +9332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="19" t="s">
         <v>384</v>
@@ -8104,7 +9345,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="19" t="s">
         <v>384</v>
@@ -8119,7 +9360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="19" t="s">
         <v>384</v>
@@ -8134,7 +9375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="19" t="s">
         <v>384</v>
@@ -8149,7 +9390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="19" t="s">
         <v>384</v>
@@ -8164,7 +9405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19" t="s">
         <v>384</v>
@@ -8179,7 +9420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="19" t="s">
         <v>384</v>
@@ -8194,7 +9435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="19" t="s">
         <v>384</v>
@@ -8209,7 +9450,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="19" t="s">
         <v>384</v>
@@ -8224,7 +9465,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="19" t="s">
         <v>384</v>
@@ -8239,7 +9480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="19" t="s">
         <v>384</v>
@@ -8254,7 +9495,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="19" t="s">
         <v>384</v>
@@ -8269,7 +9510,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="19" t="s">
         <v>384</v>
@@ -8284,7 +9525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="19" t="s">
         <v>384</v>
@@ -8299,7 +9540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="19" t="s">
         <v>384</v>
@@ -8314,7 +9555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="19" t="s">
         <v>384</v>
@@ -8329,7 +9570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="19" t="s">
         <v>384</v>
@@ -8344,7 +9585,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="19" t="s">
         <v>384</v>
@@ -8359,7 +9600,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="19" t="s">
         <v>384</v>
@@ -8374,7 +9615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="19" t="s">
         <v>384</v>
@@ -8389,7 +9630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="19" t="s">
         <v>384</v>
@@ -8404,7 +9645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="19" t="s">
         <v>384</v>
@@ -8419,7 +9660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="19" t="s">
         <v>384</v>
@@ -8434,7 +9675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="19" t="s">
         <v>384</v>
@@ -8449,7 +9690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="19" t="s">
         <v>384</v>
@@ -8464,7 +9705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="19" t="s">
         <v>384</v>
@@ -8475,7 +9716,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="19" t="s">
         <v>384</v>
@@ -8488,7 +9729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="19" t="s">
         <v>384</v>
@@ -8501,7 +9742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>622</v>
       </c>
@@ -8518,7 +9759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="19" t="s">
         <v>384</v>
@@ -8531,7 +9772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>623</v>
       </c>
@@ -8548,7 +9789,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="19" t="s">
         <v>384</v>
@@ -8561,7 +9802,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>624</v>
       </c>
@@ -8578,7 +9819,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="19" t="s">
         <v>384</v>
@@ -8591,7 +9832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>625</v>
       </c>
@@ -8608,7 +9849,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="19" t="s">
         <v>384</v>
@@ -8621,7 +9862,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>626</v>
       </c>
@@ -8638,7 +9879,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="19" t="s">
         <v>384</v>
@@ -8651,7 +9892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>627</v>
       </c>
@@ -8668,7 +9909,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="19" t="s">
         <v>384</v>
@@ -8681,7 +9922,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>628</v>
       </c>
@@ -8698,7 +9939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="19" t="s">
         <v>384</v>
@@ -8711,7 +9952,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>629</v>
       </c>
@@ -8728,7 +9969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="19" t="s">
         <v>384</v>
@@ -8741,7 +9982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>630</v>
       </c>
@@ -8758,7 +9999,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="19" t="s">
         <v>384</v>
@@ -8769,7 +10010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>384</v>
       </c>
@@ -8784,7 +10025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>384</v>
       </c>
@@ -8816,7 +10057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>384</v>
       </c>
@@ -8848,7 +10089,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>621</v>
       </c>
@@ -8880,7 +10121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>384</v>
       </c>
@@ -8912,7 +10153,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>384</v>
       </c>
@@ -8944,7 +10185,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>384</v>
       </c>
@@ -8976,7 +10217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>384</v>
       </c>
@@ -9008,7 +10249,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>384</v>
       </c>
@@ -9040,7 +10281,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>384</v>
       </c>
@@ -9072,7 +10313,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>384</v>
       </c>
@@ -9104,7 +10345,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>384</v>
       </c>
@@ -9136,7 +10377,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>384</v>
       </c>
@@ -9168,7 +10409,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>384</v>
       </c>
@@ -9200,7 +10441,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>384</v>
       </c>
@@ -9232,7 +10473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
         <v>384</v>
       </c>
@@ -9264,7 +10505,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
         <v>384</v>
       </c>
@@ -9296,7 +10537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
         <v>384</v>
       </c>
@@ -9328,7 +10569,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
         <v>384</v>
       </c>
@@ -9360,7 +10601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
         <v>384</v>
       </c>
@@ -9392,7 +10633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>384</v>
       </c>
@@ -9424,7 +10665,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="19" t="s">
         <v>384</v>
       </c>
@@ -9456,7 +10697,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="19" t="s">
         <v>384</v>
       </c>
@@ -9488,7 +10729,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
         <v>384</v>
       </c>
@@ -9520,7 +10761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
         <v>384</v>
       </c>
@@ -9552,7 +10793,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>384</v>
       </c>
@@ -9584,7 +10825,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="19" t="s">
         <v>384</v>
       </c>
@@ -9616,7 +10857,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
         <v>384</v>
       </c>
@@ -9648,7 +10889,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
         <v>384</v>
       </c>
@@ -9680,7 +10921,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>619</v>
       </c>
@@ -9712,7 +10953,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>384</v>
       </c>
@@ -9744,7 +10985,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>384</v>
       </c>
@@ -9776,7 +11017,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>384</v>
       </c>
@@ -9808,7 +11049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>384</v>
       </c>
@@ -9840,7 +11081,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>384</v>
       </c>
@@ -9872,7 +11113,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>384</v>
       </c>
@@ -9904,7 +11145,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>384</v>
       </c>
@@ -9936,7 +11177,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>384</v>
       </c>
@@ -9968,7 +11209,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>384</v>
       </c>
@@ -10000,7 +11241,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="19" t="s">
         <v>384</v>
       </c>
@@ -10032,7 +11273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
         <v>384</v>
       </c>
@@ -10064,7 +11305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
         <v>384</v>
       </c>
@@ -10096,7 +11337,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
         <v>384</v>
       </c>
@@ -10128,7 +11369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="19"/>
       <c r="B206" s="19" t="s">
         <v>384</v>
@@ -10158,7 +11399,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="19"/>
       <c r="B208" s="19" t="s">
         <v>384</v>
@@ -10188,7 +11429,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="19"/>
       <c r="B210" s="19" t="s">
         <v>384</v>
@@ -10199,7 +11440,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="19"/>
       <c r="B211" s="19" t="s">
         <v>384</v>
@@ -10210,7 +11451,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="19"/>
       <c r="B212" s="19" t="s">
         <v>384</v>
@@ -10223,7 +11464,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="19"/>
       <c r="B213" s="19" t="s">
         <v>384</v>
@@ -10236,7 +11477,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="19"/>
       <c r="B214" s="19" t="s">
         <v>384</v>
@@ -10249,7 +11490,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="19"/>
       <c r="B215" s="19" t="s">
         <v>384</v>
@@ -10262,7 +11503,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="19"/>
       <c r="B216" s="19" t="s">
         <v>384</v>
@@ -10275,7 +11516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="19"/>
       <c r="B217" s="19" t="s">
         <v>384</v>
@@ -10356,7 +11597,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="19"/>
       <c r="B222" s="19" t="s">
         <v>384</v>
@@ -10367,7 +11608,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
       <c r="B223" s="19" t="s">
         <v>384</v>
@@ -10378,7 +11619,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
       <c r="B224" s="19" t="s">
         <v>384</v>
@@ -10391,7 +11632,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
       <c r="B225" s="19" t="s">
         <v>384</v>
@@ -10404,7 +11645,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
       <c r="B226" s="19" t="s">
         <v>384</v>
@@ -10417,7 +11658,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="19" t="s">
         <v>384</v>
@@ -10430,7 +11671,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="19" t="s">
         <v>384</v>
@@ -10443,7 +11684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>635</v>
       </c>
@@ -10518,7 +11759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="19"/>
       <c r="B234" s="19" t="s">
         <v>384</v>
@@ -10529,7 +11770,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="19"/>
       <c r="B235" s="19" t="s">
         <v>384</v>
@@ -10542,7 +11783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="19"/>
       <c r="B236" s="19" t="s">
         <v>384</v>
@@ -10555,7 +11796,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="19"/>
       <c r="B237" s="19" t="s">
         <v>384</v>
@@ -10568,7 +11809,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="19"/>
       <c r="B238" s="19" t="s">
         <v>384</v>
@@ -10581,7 +11822,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="19" t="s">
         <v>636</v>
       </c>
@@ -10641,7 +11882,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="19"/>
       <c r="B243" s="19" t="s">
         <v>384</v>
@@ -10652,7 +11893,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="19"/>
       <c r="B244" s="19" t="s">
         <v>384</v>
@@ -10665,7 +11906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="19"/>
       <c r="B245" s="19" t="s">
         <v>384</v>
@@ -10678,7 +11919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="19"/>
       <c r="B246" s="19" t="s">
         <v>384</v>
@@ -10691,7 +11932,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="19"/>
       <c r="B247" s="19" t="s">
         <v>384</v>
@@ -10704,7 +11945,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="19"/>
       <c r="B248" s="19" t="s">
         <v>384</v>
@@ -10717,7 +11958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="19"/>
       <c r="B249" s="19" t="s">
         <v>384</v>
@@ -10730,7 +11971,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="19"/>
       <c r="B250" s="19" t="s">
         <v>384</v>
@@ -10743,7 +11984,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="19"/>
       <c r="B251" s="19" t="s">
         <v>384</v>
@@ -10756,7 +11997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="19"/>
       <c r="B252" s="19" t="s">
         <v>384</v>
@@ -10769,7 +12010,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="19"/>
       <c r="B253" s="19" t="s">
         <v>384</v>
@@ -10782,7 +12023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="19" t="s">
         <v>637</v>
       </c>
@@ -10932,7 +12173,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="19"/>
       <c r="B264" s="19" t="s">
         <v>384</v>
@@ -10943,7 +12184,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="19"/>
       <c r="B265" s="19" t="s">
         <v>384</v>
@@ -10956,7 +12197,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="19"/>
       <c r="B266" s="19" t="s">
         <v>384</v>
@@ -10969,7 +12210,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="19"/>
       <c r="B267" s="19" t="s">
         <v>384</v>
@@ -10982,7 +12223,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="19"/>
       <c r="B268" s="19" t="s">
         <v>384</v>
@@ -10995,7 +12236,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="19"/>
       <c r="B269" s="19" t="s">
         <v>384</v>
@@ -11008,7 +12249,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="19"/>
       <c r="B270" s="19" t="s">
         <v>384</v>
@@ -11021,7 +12262,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="19"/>
       <c r="B271" s="19" t="s">
         <v>384</v>
@@ -11034,7 +12275,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="19"/>
       <c r="B272" s="19" t="s">
         <v>384</v>
@@ -11047,7 +12288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="19"/>
       <c r="B273" s="19" t="s">
         <v>384</v>
@@ -11060,7 +12301,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="19"/>
       <c r="B274" s="19" t="s">
         <v>384</v>
@@ -11073,7 +12314,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="19" t="s">
         <v>638</v>
       </c>
@@ -11223,7 +12464,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="19"/>
       <c r="B285" s="19" t="s">
         <v>384</v>
@@ -11234,7 +12475,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="19"/>
       <c r="B286" s="19" t="s">
         <v>384</v>
@@ -11247,7 +12488,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="19"/>
       <c r="B287" s="19" t="s">
         <v>384</v>
@@ -11260,7 +12501,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="19"/>
       <c r="B288" s="19" t="s">
         <v>384</v>
@@ -11273,7 +12514,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="19"/>
       <c r="B289" s="19" t="s">
         <v>384</v>
@@ -11286,7 +12527,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="19"/>
       <c r="B290" s="19" t="s">
         <v>384</v>
@@ -11299,7 +12540,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="19"/>
       <c r="B291" s="19" t="s">
         <v>384</v>
@@ -11312,7 +12553,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="19"/>
       <c r="B292" s="19" t="s">
         <v>384</v>
@@ -11325,7 +12566,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="19"/>
       <c r="B293" s="19" t="s">
         <v>384</v>
@@ -11338,7 +12579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="19" t="s">
         <v>639</v>
       </c>
@@ -11458,7 +12699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="19"/>
       <c r="B302" s="19" t="s">
         <v>384</v>
@@ -11469,7 +12710,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="19"/>
       <c r="B303" s="19" t="s">
         <v>384</v>
@@ -11480,7 +12721,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="19"/>
       <c r="B304" s="19" t="s">
         <v>384</v>
@@ -11493,7 +12734,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="19"/>
       <c r="B305" s="19" t="s">
         <v>384</v>
@@ -11506,7 +12747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="19"/>
       <c r="B306" s="19" t="s">
         <v>384</v>
@@ -11519,7 +12760,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="19"/>
       <c r="B307" s="19" t="s">
         <v>384</v>
@@ -11532,7 +12773,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="19" t="s">
         <v>640</v>
       </c>
@@ -11592,7 +12833,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="19"/>
       <c r="B312" s="19" t="s">
         <v>384</v>
@@ -11603,7 +12844,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="19"/>
       <c r="B313" s="19" t="s">
         <v>384</v>
@@ -11616,7 +12857,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="19"/>
       <c r="B314" s="19" t="s">
         <v>384</v>
@@ -11629,7 +12870,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="19"/>
       <c r="B315" s="19" t="s">
         <v>384</v>
@@ -11642,7 +12883,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="19"/>
       <c r="B316" s="19" t="s">
         <v>384</v>
@@ -11655,7 +12896,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="19"/>
       <c r="B317" s="19" t="s">
         <v>384</v>
@@ -11668,7 +12909,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="19"/>
       <c r="B318" s="19" t="s">
         <v>384</v>
@@ -11681,7 +12922,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="19"/>
       <c r="B319" s="19" t="s">
         <v>384</v>
@@ -11694,7 +12935,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="19"/>
       <c r="B320" s="19" t="s">
         <v>384</v>
@@ -11707,7 +12948,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="19"/>
       <c r="B321" s="19" t="s">
         <v>384</v>
@@ -11720,7 +12961,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="19"/>
       <c r="B322" s="19" t="s">
         <v>384</v>
@@ -11733,7 +12974,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="19"/>
       <c r="B323" s="19" t="s">
         <v>384</v>
@@ -11746,7 +12987,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="19"/>
       <c r="B324" s="19" t="s">
         <v>384</v>
@@ -11759,7 +13000,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="19"/>
       <c r="B325" s="19" t="s">
         <v>384</v>
@@ -11772,7 +13013,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="19"/>
       <c r="B326" s="19" t="s">
         <v>384</v>
@@ -11785,7 +13026,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="19"/>
       <c r="B327" s="19" t="s">
         <v>384</v>
@@ -11798,7 +13039,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>641</v>
       </c>
@@ -12023,7 +13264,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="19"/>
       <c r="B343" s="19" t="s">
         <v>384</v>
@@ -12034,7 +13275,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="19"/>
       <c r="B344" s="19" t="s">
         <v>384</v>
@@ -12047,7 +13288,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="19"/>
       <c r="B345" s="19" t="s">
         <v>384</v>
@@ -12060,7 +13301,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="19" t="s">
         <v>642</v>
       </c>
@@ -12090,7 +13331,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="19"/>
       <c r="B348" s="19" t="s">
         <v>384</v>
@@ -12101,7 +13342,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="19"/>
       <c r="B349" s="19" t="s">
         <v>384</v>
@@ -12112,7 +13353,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="19"/>
       <c r="B350" s="19" t="s">
         <v>384</v>
@@ -12125,7 +13366,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="19"/>
       <c r="B351" s="19" t="s">
         <v>384</v>
@@ -12138,7 +13379,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="19"/>
       <c r="B352" s="19" t="s">
         <v>384</v>
@@ -12151,7 +13392,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="19"/>
       <c r="B353" s="19" t="s">
         <v>384</v>
@@ -12164,7 +13405,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="19"/>
       <c r="B354" s="19" t="s">
         <v>384</v>
@@ -12177,7 +13418,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="19" t="s">
         <v>643</v>
       </c>
@@ -12252,7 +13493,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="19"/>
       <c r="B360" s="19" t="s">
         <v>384</v>
@@ -12263,7 +13504,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="19"/>
       <c r="B361" s="19" t="s">
         <v>384</v>
@@ -12276,7 +13517,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="19"/>
       <c r="B362" s="19" t="s">
         <v>384</v>
@@ -12289,7 +13530,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="19"/>
       <c r="B363" s="19" t="s">
         <v>384</v>
@@ -12302,7 +13543,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="19"/>
       <c r="B364" s="19" t="s">
         <v>384</v>
@@ -12315,7 +13556,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="s">
         <v>644</v>
       </c>
@@ -12375,7 +13616,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="19"/>
       <c r="B369" s="19" t="s">
         <v>384</v>
@@ -12386,7 +13627,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="19"/>
       <c r="B370" s="19" t="s">
         <v>384</v>
@@ -12397,7 +13638,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="19"/>
       <c r="B371" s="19" t="s">
         <v>384</v>
@@ -12408,7 +13649,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="19"/>
       <c r="B372" s="19" t="s">
         <v>384</v>
@@ -12421,7 +13662,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="19"/>
       <c r="B373" s="19" t="s">
         <v>384</v>
@@ -12434,7 +13675,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="19"/>
       <c r="B374" s="19" t="s">
         <v>384</v>
@@ -12447,7 +13688,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="19"/>
       <c r="B375" s="19" t="s">
         <v>384</v>
@@ -12460,7 +13701,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="19"/>
       <c r="B376" s="19" t="s">
         <v>384</v>
@@ -12473,7 +13714,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="19"/>
       <c r="B377" s="19" t="s">
         <v>384</v>
@@ -12486,7 +13727,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="19"/>
       <c r="B378" s="19" t="s">
         <v>384</v>
@@ -12499,7 +13740,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="19"/>
       <c r="B379" s="19" t="s">
         <v>384</v>
@@ -12512,7 +13753,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="19"/>
       <c r="B380" s="19" t="s">
         <v>384</v>
@@ -12525,7 +13766,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="19"/>
       <c r="B381" s="19" t="s">
         <v>384</v>
@@ -12538,7 +13779,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="19" t="s">
         <v>645</v>
       </c>
@@ -12688,7 +13929,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="19"/>
       <c r="B392" s="19" t="s">
         <v>384</v>
@@ -12699,7 +13940,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="19"/>
       <c r="B393" s="19" t="s">
         <v>384</v>
@@ -12712,7 +13953,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="19"/>
       <c r="B394" s="19" t="s">
         <v>384</v>
@@ -12725,7 +13966,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="19"/>
       <c r="B395" s="19" t="s">
         <v>384</v>
@@ -12738,7 +13979,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="19"/>
       <c r="B396" s="19" t="s">
         <v>384</v>
@@ -12751,7 +13992,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="19"/>
       <c r="B397" s="19" t="s">
         <v>384</v>
@@ -12764,7 +14005,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="19" t="s">
         <v>646</v>
       </c>
@@ -12839,7 +14080,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="19"/>
       <c r="B403" s="19" t="s">
         <v>384</v>
@@ -12850,7 +14091,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="19"/>
       <c r="B404" s="19" t="s">
         <v>384</v>
@@ -12861,7 +14102,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="19"/>
       <c r="B405" s="19" t="s">
         <v>384</v>
@@ -12874,7 +14115,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="19"/>
       <c r="B406" s="19" t="s">
         <v>384</v>
@@ -12887,7 +14128,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="19"/>
       <c r="B407" s="19" t="s">
         <v>384</v>
@@ -12900,7 +14141,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="19"/>
       <c r="B408" s="19" t="s">
         <v>384</v>
@@ -12913,7 +14154,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="19"/>
       <c r="B409" s="19" t="s">
         <v>384</v>
@@ -12926,7 +14167,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="19"/>
       <c r="B410" s="19" t="s">
         <v>384</v>
@@ -12939,7 +14180,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="19"/>
       <c r="B411" s="19" t="s">
         <v>384</v>
@@ -12952,7 +14193,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="19"/>
       <c r="B412" s="19" t="s">
         <v>384</v>
@@ -12965,7 +14206,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="19" t="s">
         <v>647</v>
       </c>
@@ -13085,7 +14326,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="19"/>
       <c r="B421" s="19" t="s">
         <v>384</v>
@@ -13096,7 +14337,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="19"/>
       <c r="B422" s="19" t="s">
         <v>384</v>
@@ -13109,7 +14350,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="19"/>
       <c r="B423" s="19" t="s">
         <v>384</v>
@@ -13122,7 +14363,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="19"/>
       <c r="B424" s="19" t="s">
         <v>384</v>
@@ -13135,7 +14376,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="19"/>
       <c r="B425" s="19" t="s">
         <v>384</v>
@@ -13148,7 +14389,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="19" t="s">
         <v>648</v>
       </c>
@@ -13208,7 +14449,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="19"/>
       <c r="B430" s="19" t="s">
         <v>384</v>
@@ -13219,7 +14460,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="19"/>
       <c r="B431" s="19" t="s">
         <v>384</v>
@@ -13232,7 +14473,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="19"/>
       <c r="B432" s="19" t="s">
         <v>384</v>
@@ -13245,7 +14486,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="19"/>
       <c r="B433" s="19" t="s">
         <v>384</v>
@@ -13258,7 +14499,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="19"/>
       <c r="B434" s="19" t="s">
         <v>384</v>
@@ -13271,7 +14512,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="19"/>
       <c r="B435" s="19" t="s">
         <v>384</v>
@@ -13284,7 +14525,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="19"/>
       <c r="B436" s="19" t="s">
         <v>384</v>
@@ -13297,7 +14538,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="19"/>
       <c r="B437" s="19" t="s">
         <v>384</v>
@@ -13310,7 +14551,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="19"/>
       <c r="B438" s="19" t="s">
         <v>384</v>
@@ -13323,7 +14564,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="19"/>
       <c r="B439" s="19" t="s">
         <v>384</v>
@@ -13336,7 +14577,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="19"/>
       <c r="B440" s="19" t="s">
         <v>384</v>
@@ -13349,7 +14590,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="19"/>
       <c r="B441" s="19" t="s">
         <v>384</v>
@@ -13362,7 +14603,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="19" t="s">
         <v>649</v>
       </c>
@@ -13527,7 +14768,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="19"/>
       <c r="B453" s="19" t="s">
         <v>384</v>
@@ -13538,7 +14779,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="19"/>
       <c r="B454" s="19" t="s">
         <v>384</v>
@@ -13551,7 +14792,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="19"/>
       <c r="B455" s="19" t="s">
         <v>384</v>
@@ -13564,7 +14805,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="19"/>
       <c r="B456" s="19" t="s">
         <v>384</v>
@@ -13577,7 +14818,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="19"/>
       <c r="B457" s="19" t="s">
         <v>384</v>
@@ -13590,7 +14831,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="19"/>
       <c r="B458" s="19" t="s">
         <v>384</v>
@@ -13603,7 +14844,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="19"/>
       <c r="B459" s="19" t="s">
         <v>384</v>
@@ -13616,7 +14857,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="19"/>
       <c r="B460" s="19" t="s">
         <v>384</v>
@@ -13629,7 +14870,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="19" t="s">
         <v>650</v>
       </c>
@@ -13734,7 +14975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="19"/>
       <c r="B468" s="19" t="s">
         <v>384</v>
@@ -13745,7 +14986,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="19"/>
       <c r="B469" s="19" t="s">
         <v>384</v>
@@ -13756,7 +14997,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="19"/>
       <c r="B470" s="19" t="s">
         <v>384</v>
@@ -13949,7 +15190,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="19"/>
       <c r="B483" s="19" t="s">
         <v>384</v>

--- a/notes/Array Content.xlsx
+++ b/notes/Array Content.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\repos\lasertank-python\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="11475" windowHeight="3930" tabRatio="851" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="11475" windowHeight="3930" tabRatio="851" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Minimal Attributes" sheetId="9" r:id="rId1"/>
-    <sheet name="Objects" sheetId="6" r:id="rId2"/>
+    <sheet name="Objects" sheetId="6" r:id="rId1"/>
+    <sheet name="Minimal Attributes" sheetId="9" r:id="rId2"/>
     <sheet name="C IDs" sheetId="1" r:id="rId3"/>
     <sheet name="BMP" sheetId="2" r:id="rId4"/>
     <sheet name="Language" sheetId="3" r:id="rId5"/>
@@ -20,7 +25,7 @@
     <sheet name="Tunnel IDs" sheetId="11" r:id="rId11"/>
     <sheet name="Custom IDs" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3313,7 +3318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3348,7 +3353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3557,747 +3562,736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="23" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="83.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="26.1" x14ac:dyDescent="0.6">
       <c r="A1" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>677</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>661</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="F2" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="G2" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="H2" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="I2" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="J2" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="K2" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="F3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35" t="s">
+      <c r="C3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="H3" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="E3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="H3" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="I3" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="J3" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="K3" s="8" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="H4" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="I4" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="J4" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="N4" s="40"/>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="F5" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="C5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="35" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="H5" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="I5" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="J5" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="N5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="38" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="H6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="I6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="J6" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="N6" s="40"/>
-    </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>663</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="F7" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="35" t="s">
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="H7" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="35" t="s">
+      <c r="E7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="H7" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="I7" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="J7" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="K7" s="8" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>21</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="K20" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="31" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="H21" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="I21" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="J21" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="N8" s="32"/>
-    </row>
-    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="F9" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H9" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="M9" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="F10" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="N10" s="40"/>
-    </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="F11" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="F12" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="M12" s="38" t="s">
-        <v>434</v>
-      </c>
-      <c r="N12" s="40"/>
-    </row>
-    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="F13" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="F14" s="38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>440</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>433</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="N14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="M15" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="38" t="s">
-        <v>442</v>
-      </c>
-      <c r="N16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="N19" s="37"/>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="40" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41" t="s">
+      <c r="C24" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="D24" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>2</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45" t="s">
+      <c r="C26" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43" t="s">
+      <c r="C27" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>668</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="45" t="s">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>15</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="D28" s="13" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>16</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>17</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>18</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>24</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45" t="s">
+      <c r="C32" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="G28" s="46"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>25</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43" t="s">
-        <v>669</v>
-      </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="C33" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47" t="s">
-        <v>671</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>675</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>679</v>
-      </c>
+      <c r="D35" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4753,7 +4747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:A36"/>
     </sheetView>
   </sheetViews>
@@ -5217,736 +5211,747 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="83.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="23" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="33" t="s">
+        <v>661</v>
+      </c>
       <c r="C2" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="N2" s="34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="E3" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="K3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="B4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="K4" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="L4" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="M4" s="38" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F5" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="K5" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="L5" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="M5" s="35" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="N5" s="37"/>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="K6" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="M6" s="38" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F7" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H7" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="F9" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="F10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="H10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="F11" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="F12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="F13" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="F14" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>665</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="40" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43" t="s">
+        <v>669</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47" t="s">
+        <v>671</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B34" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>675</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="K20" s="8" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>0</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>3</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>15</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>16</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>17</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>18</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>24</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>25</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D35" s="15"/>
+      <c r="B35" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>679</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -5954,8 +5959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:E75"/>
+    <sheetView topLeftCell="D34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7312,9 +7317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15219,7 +15222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B383"/>
   <sheetViews>
-    <sheetView topLeftCell="A325" workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
@@ -18529,7 +18532,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notes/Array Content.xlsx
+++ b/notes/Array Content.xlsx
@@ -3643,7 +3643,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,9 +4203,6 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="44" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="22" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
@@ -4342,12 +4339,12 @@
       </c>
       <c r="G31" s="50"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>12</v>
       </c>
@@ -4364,7 +4361,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>461</v>
       </c>
@@ -4379,6 +4376,9 @@
       </c>
       <c r="E35" s="52" t="s">
         <v>678</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
